--- a/UDM/Shifts.xlsx
+++ b/UDM/Shifts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSSO\AutomatingRequirementChecks\UDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B102C-9F10-4A5A-B16C-46B4B0C5DC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A68D32-F955-40D4-9537-3C12B907118F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="11736" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="328">
   <si>
     <t>Date</t>
   </si>
@@ -522,9 +522,6 @@
   </si>
   <si>
     <t>Michels, Kyle</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Employee: Mohammadzadeh, Mohammad (NEW)</t>
@@ -7690,9 +7687,6 @@
       <c r="I289">
         <v>0</v>
       </c>
-      <c r="J289" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
@@ -7784,7 +7778,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -7811,7 +7805,7 @@
         <v>27</v>
       </c>
       <c r="G295" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H295">
         <v>4</v>
@@ -7838,7 +7832,7 @@
         <v>66</v>
       </c>
       <c r="G296" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H296">
         <v>4</v>
@@ -7862,7 +7856,7 @@
         <v>23</v>
       </c>
       <c r="G297" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H297">
         <v>4</v>
@@ -7886,7 +7880,7 @@
         <v>10</v>
       </c>
       <c r="G298" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H298">
         <v>3</v>
@@ -7906,14 +7900,14 @@
       </c>
       <c r="G299" s="2"/>
       <c r="H299" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -7943,7 +7937,7 @@
         <v>41</v>
       </c>
       <c r="G301" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H301">
         <v>4</v>
@@ -7970,7 +7964,7 @@
         <v>41</v>
       </c>
       <c r="G302" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H302">
         <v>4</v>
@@ -7997,7 +7991,7 @@
         <v>41</v>
       </c>
       <c r="G303" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H303">
         <v>5</v>
@@ -8024,7 +8018,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -8054,7 +8048,7 @@
         <v>41</v>
       </c>
       <c r="G306" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H306">
         <v>4.25</v>
@@ -8081,7 +8075,7 @@
         <v>41</v>
       </c>
       <c r="G307" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H307">
         <v>4</v>
@@ -8108,7 +8102,7 @@
         <v>41</v>
       </c>
       <c r="G308" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H308">
         <v>4</v>
@@ -8135,7 +8129,7 @@
         <v>41</v>
       </c>
       <c r="G309" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H309">
         <v>4</v>
@@ -8155,14 +8149,14 @@
       </c>
       <c r="G310" s="2"/>
       <c r="H310" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I310" s="2"/>
       <c r="J310" s="2"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -8189,7 +8183,7 @@
         <v>33</v>
       </c>
       <c r="G312" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H312">
         <v>3</v>
@@ -8213,7 +8207,7 @@
         <v>33</v>
       </c>
       <c r="G313" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H313">
         <v>3</v>
@@ -8233,14 +8227,14 @@
       </c>
       <c r="G314" s="2"/>
       <c r="H314" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I314" s="2"/>
       <c r="J314" s="2"/>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -8270,7 +8264,7 @@
         <v>41</v>
       </c>
       <c r="G316" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H316">
         <v>5.5</v>
@@ -8297,7 +8291,7 @@
         <v>41</v>
       </c>
       <c r="G317" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H317">
         <v>4.5</v>
@@ -8327,7 +8321,7 @@
         <v>41</v>
       </c>
       <c r="G318" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H318">
         <v>4.25</v>
@@ -8354,7 +8348,7 @@
         <v>41</v>
       </c>
       <c r="G319" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H319">
         <v>4.5</v>
@@ -8381,7 +8375,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -8408,7 +8402,7 @@
         <v>33</v>
       </c>
       <c r="G322" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H322">
         <v>4</v>
@@ -8432,7 +8426,7 @@
         <v>33</v>
       </c>
       <c r="G323" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H323">
         <v>4</v>
@@ -8456,7 +8450,7 @@
         <v>33</v>
       </c>
       <c r="G324" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H324">
         <v>4</v>
@@ -8483,7 +8477,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -8513,7 +8507,7 @@
         <v>41</v>
       </c>
       <c r="G327" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H327">
         <v>4</v>
@@ -8540,7 +8534,7 @@
         <v>41</v>
       </c>
       <c r="G328" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H328">
         <v>3</v>
@@ -8567,7 +8561,7 @@
         <v>41</v>
       </c>
       <c r="G329" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H329">
         <v>4</v>
@@ -8594,7 +8588,7 @@
         <v>41</v>
       </c>
       <c r="G330" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H330">
         <v>5</v>
@@ -8621,7 +8615,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -8648,7 +8642,7 @@
         <v>27</v>
       </c>
       <c r="G333" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H333">
         <v>4</v>
@@ -8675,7 +8669,7 @@
         <v>41</v>
       </c>
       <c r="G334" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H334">
         <v>4</v>
@@ -8702,7 +8696,7 @@
         <v>41</v>
       </c>
       <c r="G335" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H335">
         <v>4</v>
@@ -8729,7 +8723,7 @@
         <v>41</v>
       </c>
       <c r="G336" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H336">
         <v>4.25</v>
@@ -8752,14 +8746,14 @@
       </c>
       <c r="G337" s="2"/>
       <c r="H337" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I337" s="2"/>
       <c r="J337" s="2"/>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -8786,7 +8780,7 @@
         <v>10</v>
       </c>
       <c r="G339" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H339">
         <v>3</v>
@@ -8810,7 +8804,7 @@
         <v>66</v>
       </c>
       <c r="G340" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H340">
         <v>4</v>
@@ -8834,7 +8828,7 @@
         <v>66</v>
       </c>
       <c r="G341" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H341">
         <v>4</v>
@@ -8858,7 +8852,7 @@
         <v>10</v>
       </c>
       <c r="G342" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H342">
         <v>3</v>
@@ -8885,7 +8879,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -8912,7 +8906,7 @@
         <v>18</v>
       </c>
       <c r="G345" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H345">
         <v>3.5</v>
@@ -8936,7 +8930,7 @@
         <v>43</v>
       </c>
       <c r="G346" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H346">
         <v>4</v>
@@ -8960,7 +8954,7 @@
         <v>10</v>
       </c>
       <c r="G347" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H347">
         <v>3.25</v>
@@ -8987,7 +8981,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -9014,7 +9008,7 @@
         <v>66</v>
       </c>
       <c r="G350" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H350">
         <v>3</v>
@@ -9038,7 +9032,7 @@
         <v>12</v>
       </c>
       <c r="G351" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H351">
         <v>4</v>
@@ -9062,7 +9056,7 @@
         <v>10</v>
       </c>
       <c r="G352" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H352">
         <v>3</v>
@@ -9089,7 +9083,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -9119,7 +9113,7 @@
         <v>41</v>
       </c>
       <c r="G355" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H355">
         <v>5</v>
@@ -9128,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -9149,7 +9143,7 @@
         <v>41</v>
       </c>
       <c r="G356" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H356">
         <v>5</v>
@@ -9158,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -9179,7 +9173,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -9206,7 +9200,7 @@
         <v>12</v>
       </c>
       <c r="G359" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H359">
         <v>3</v>
@@ -9230,7 +9224,7 @@
         <v>10</v>
       </c>
       <c r="G360" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H360">
         <v>4.5</v>
@@ -9254,7 +9248,7 @@
         <v>33</v>
       </c>
       <c r="G361" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H361">
         <v>3</v>
@@ -9281,7 +9275,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -9308,7 +9302,7 @@
         <v>12</v>
       </c>
       <c r="G364" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H364">
         <v>3.5</v>
@@ -9332,7 +9326,7 @@
         <v>10</v>
       </c>
       <c r="G365" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H365">
         <v>3</v>
@@ -9356,7 +9350,7 @@
         <v>66</v>
       </c>
       <c r="G366" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H366">
         <v>3</v>
@@ -9380,7 +9374,7 @@
         <v>23</v>
       </c>
       <c r="G367" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H367">
         <v>4</v>
@@ -9404,7 +9398,7 @@
         <v>12</v>
       </c>
       <c r="G368" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H368">
         <v>4</v>
@@ -9431,7 +9425,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -9458,7 +9452,7 @@
         <v>10</v>
       </c>
       <c r="G371" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H371">
         <v>3.75</v>
@@ -9482,7 +9476,7 @@
         <v>18</v>
       </c>
       <c r="G372" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H372">
         <v>4</v>
@@ -9506,7 +9500,7 @@
         <v>18</v>
       </c>
       <c r="G373" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H373">
         <v>3.5</v>
@@ -9530,7 +9524,7 @@
         <v>18</v>
       </c>
       <c r="G374" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H374">
         <v>4.5</v>
@@ -9557,7 +9551,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -9587,7 +9581,7 @@
         <v>41</v>
       </c>
       <c r="G377" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H377">
         <v>5</v>
@@ -9614,7 +9608,7 @@
         <v>41</v>
       </c>
       <c r="G378" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H378">
         <v>3</v>
@@ -9641,7 +9635,7 @@
         <v>41</v>
       </c>
       <c r="G379" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H379">
         <v>4.25</v>
@@ -9668,7 +9662,7 @@
         <v>41</v>
       </c>
       <c r="G380" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H380">
         <v>3</v>
@@ -9695,7 +9689,7 @@
         <v>41</v>
       </c>
       <c r="G381" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H381">
         <v>4.25</v>
@@ -9722,7 +9716,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -9749,7 +9743,7 @@
         <v>14</v>
       </c>
       <c r="G384" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H384">
         <v>2.5</v>
@@ -9773,7 +9767,7 @@
         <v>14</v>
       </c>
       <c r="G385" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H385">
         <v>3</v>
@@ -9797,7 +9791,7 @@
         <v>10</v>
       </c>
       <c r="G386" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H386">
         <v>4.5</v>
@@ -9821,7 +9815,7 @@
         <v>18</v>
       </c>
       <c r="G387" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H387">
         <v>4.25</v>
@@ -9848,7 +9842,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -9875,7 +9869,7 @@
         <v>10</v>
       </c>
       <c r="G390" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H390">
         <v>3</v>
@@ -9899,7 +9893,7 @@
         <v>27</v>
       </c>
       <c r="G391" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H391">
         <v>3.5</v>
@@ -9926,7 +9920,7 @@
         <v>10</v>
       </c>
       <c r="G392" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H392">
         <v>3</v>
@@ -9950,7 +9944,7 @@
         <v>10</v>
       </c>
       <c r="G393" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H393">
         <v>3.25</v>
@@ -9974,7 +9968,7 @@
         <v>27</v>
       </c>
       <c r="G394" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H394">
         <v>3.5</v>
@@ -10001,7 +9995,7 @@
         <v>10</v>
       </c>
       <c r="G395" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H395">
         <v>3</v>
@@ -10028,7 +10022,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -10055,7 +10049,7 @@
         <v>10</v>
       </c>
       <c r="G398" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H398">
         <v>3.25</v>
@@ -10071,18 +10065,18 @@
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G399" s="2"/>
       <c r="H399" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I399" s="2"/>
       <c r="J399" s="2"/>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -10112,7 +10106,7 @@
         <v>74</v>
       </c>
       <c r="G401" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H401">
         <v>2.1666660308837891</v>
@@ -10136,7 +10130,7 @@
         <v>10</v>
       </c>
       <c r="G402" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H402">
         <v>3.25</v>
@@ -10160,7 +10154,7 @@
         <v>33</v>
       </c>
       <c r="G403" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H403">
         <v>4</v>
@@ -10180,14 +10174,14 @@
       </c>
       <c r="G404" s="2"/>
       <c r="H404" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I404" s="2"/>
       <c r="J404" s="2"/>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -10217,7 +10211,7 @@
         <v>41</v>
       </c>
       <c r="G406" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H406">
         <v>6</v>
@@ -10244,7 +10238,7 @@
         <v>41</v>
       </c>
       <c r="G407" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H407">
         <v>5.75</v>
@@ -10271,7 +10265,7 @@
         <v>41</v>
       </c>
       <c r="G408" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H408">
         <v>4.25</v>
@@ -10298,7 +10292,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -10325,7 +10319,7 @@
         <v>12</v>
       </c>
       <c r="G411" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H411">
         <v>4.25</v>
@@ -10349,7 +10343,7 @@
         <v>10</v>
       </c>
       <c r="G412" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H412">
         <v>3</v>
@@ -10373,7 +10367,7 @@
         <v>12</v>
       </c>
       <c r="G413" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H413">
         <v>4.25</v>
@@ -10393,14 +10387,14 @@
       </c>
       <c r="G414" s="2"/>
       <c r="H414" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I414" s="2"/>
       <c r="J414" s="2"/>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -10427,7 +10421,7 @@
         <v>12</v>
       </c>
       <c r="G416" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H416">
         <v>4</v>
@@ -10451,7 +10445,7 @@
         <v>10</v>
       </c>
       <c r="G417" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H417">
         <v>3.25</v>
@@ -10475,7 +10469,7 @@
         <v>66</v>
       </c>
       <c r="G418" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H418">
         <v>3</v>
@@ -10499,7 +10493,7 @@
         <v>33</v>
       </c>
       <c r="G419" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H419">
         <v>4</v>
@@ -10526,7 +10520,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -10553,7 +10547,7 @@
         <v>14</v>
       </c>
       <c r="G422" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H422">
         <v>5</v>
@@ -10577,7 +10571,7 @@
         <v>10</v>
       </c>
       <c r="G423" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H423">
         <v>3.25</v>
@@ -10604,7 +10598,7 @@
         <v>74</v>
       </c>
       <c r="G424" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H424">
         <v>3.1666660308837891</v>
@@ -10628,7 +10622,7 @@
         <v>18</v>
       </c>
       <c r="G425" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H425">
         <v>4</v>
@@ -10648,14 +10642,14 @@
       </c>
       <c r="G426" s="2"/>
       <c r="H426" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I426" s="2"/>
       <c r="J426" s="2"/>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -10682,7 +10676,7 @@
         <v>12</v>
       </c>
       <c r="G428" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H428">
         <v>3</v>
@@ -10706,7 +10700,7 @@
         <v>10</v>
       </c>
       <c r="G429" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H429">
         <v>3.25</v>
@@ -10730,7 +10724,7 @@
         <v>12</v>
       </c>
       <c r="G430" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H430">
         <v>3</v>
@@ -10757,7 +10751,7 @@
         <v>74</v>
       </c>
       <c r="G431" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H431">
         <v>3.1666660308837891</v>
@@ -10777,14 +10771,14 @@
       </c>
       <c r="G432" s="2"/>
       <c r="H432" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I432" s="2"/>
       <c r="J432" s="2"/>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -10811,7 +10805,7 @@
         <v>33</v>
       </c>
       <c r="G434" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H434">
         <v>3</v>
@@ -10835,7 +10829,7 @@
         <v>33</v>
       </c>
       <c r="G435" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H435">
         <v>3</v>
@@ -10859,7 +10853,7 @@
         <v>10</v>
       </c>
       <c r="G436" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H436">
         <v>3</v>
@@ -10883,7 +10877,7 @@
         <v>33</v>
       </c>
       <c r="G437" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H437">
         <v>3</v>
@@ -10907,7 +10901,7 @@
         <v>33</v>
       </c>
       <c r="G438" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H438">
         <v>4</v>
@@ -10934,7 +10928,7 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -10961,7 +10955,7 @@
         <v>18</v>
       </c>
       <c r="G441" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H441">
         <v>4.25</v>
@@ -10985,7 +10979,7 @@
         <v>14</v>
       </c>
       <c r="G442" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H442">
         <v>3</v>
@@ -11009,7 +11003,7 @@
         <v>18</v>
       </c>
       <c r="G443" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H443">
         <v>4.25</v>
@@ -11033,7 +11027,7 @@
         <v>14</v>
       </c>
       <c r="G444" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H444">
         <v>3.5</v>
@@ -11053,14 +11047,14 @@
       </c>
       <c r="G445" s="2"/>
       <c r="H445" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I445" s="2"/>
       <c r="J445" s="2"/>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -11090,7 +11084,7 @@
         <v>41</v>
       </c>
       <c r="G447" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H447">
         <v>4.5</v>
@@ -11120,7 +11114,7 @@
         <v>41</v>
       </c>
       <c r="G448" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H448">
         <v>5.5</v>
@@ -11147,7 +11141,7 @@
         <v>41</v>
       </c>
       <c r="G449" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H449">
         <v>5.5</v>
@@ -11174,7 +11168,7 @@
         <v>41</v>
       </c>
       <c r="G450" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H450">
         <v>4.5</v>
@@ -11204,7 +11198,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -11231,7 +11225,7 @@
         <v>66</v>
       </c>
       <c r="G453" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H453">
         <v>4.5</v>
@@ -11252,10 +11246,10 @@
         <v>45442.416666666657</v>
       </c>
       <c r="F454" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G454" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H454">
         <v>4</v>
@@ -11279,7 +11273,7 @@
         <v>12</v>
       </c>
       <c r="G455" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H455">
         <v>3.75</v>
@@ -11303,7 +11297,7 @@
         <v>10</v>
       </c>
       <c r="G456" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H456">
         <v>3</v>
@@ -11330,7 +11324,7 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -11360,7 +11354,7 @@
         <v>41</v>
       </c>
       <c r="G459" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H459">
         <v>3</v>
@@ -11387,7 +11381,7 @@
         <v>41</v>
       </c>
       <c r="G460" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H460">
         <v>4</v>
@@ -11417,7 +11411,7 @@
         <v>41</v>
       </c>
       <c r="G461" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H461">
         <v>4</v>
@@ -11444,7 +11438,7 @@
         <v>41</v>
       </c>
       <c r="G462" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H462">
         <v>4</v>
@@ -11464,14 +11458,14 @@
       </c>
       <c r="G463" s="2"/>
       <c r="H463" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I463" s="2"/>
       <c r="J463" s="2"/>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -11498,7 +11492,7 @@
         <v>66</v>
       </c>
       <c r="G465" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H465">
         <v>3</v>
@@ -11522,7 +11516,7 @@
         <v>10</v>
       </c>
       <c r="G466" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H466">
         <v>3.25</v>
@@ -11546,7 +11540,7 @@
         <v>66</v>
       </c>
       <c r="G467" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H467">
         <v>3.5</v>
@@ -11570,7 +11564,7 @@
         <v>66</v>
       </c>
       <c r="G468" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H468">
         <v>3</v>
@@ -11597,7 +11591,7 @@
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -11624,7 +11618,7 @@
         <v>23</v>
       </c>
       <c r="G471" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H471">
         <v>4</v>
@@ -11648,7 +11642,7 @@
         <v>12</v>
       </c>
       <c r="G472" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H472">
         <v>4</v>
@@ -11672,7 +11666,7 @@
         <v>14</v>
       </c>
       <c r="G473" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H473">
         <v>3</v>
@@ -11696,7 +11690,7 @@
         <v>18</v>
       </c>
       <c r="G474" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H474">
         <v>4.25</v>
@@ -11720,7 +11714,7 @@
         <v>10</v>
       </c>
       <c r="G475" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H475">
         <v>3.25</v>
@@ -11740,14 +11734,14 @@
       </c>
       <c r="G476" s="2"/>
       <c r="H476" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I476" s="2"/>
       <c r="J476" s="2"/>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -11774,7 +11768,7 @@
         <v>66</v>
       </c>
       <c r="G478" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H478">
         <v>3.5</v>
@@ -11798,7 +11792,7 @@
         <v>10</v>
       </c>
       <c r="G479" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H479">
         <v>3</v>
@@ -11822,7 +11816,7 @@
         <v>66</v>
       </c>
       <c r="G480" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H480">
         <v>3.5</v>
@@ -11849,7 +11843,7 @@
         <v>74</v>
       </c>
       <c r="G481" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H481">
         <v>3.1666660308837891</v>
@@ -11876,7 +11870,7 @@
         <v>74</v>
       </c>
       <c r="G482" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H482">
         <v>3.6666660308837891</v>
@@ -11903,7 +11897,7 @@
         <v>74</v>
       </c>
       <c r="G483" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H483">
         <v>2.1666660308837891</v>
@@ -11930,7 +11924,7 @@
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -11957,7 +11951,7 @@
         <v>14</v>
       </c>
       <c r="G486" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H486">
         <v>3.5</v>
@@ -11981,7 +11975,7 @@
         <v>14</v>
       </c>
       <c r="G487" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H487">
         <v>3</v>
@@ -12005,7 +11999,7 @@
         <v>10</v>
       </c>
       <c r="G488" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H488">
         <v>3.5</v>
@@ -12029,7 +12023,7 @@
         <v>27</v>
       </c>
       <c r="G489" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H489">
         <v>4.25</v>
@@ -12056,7 +12050,7 @@
         <v>27</v>
       </c>
       <c r="G490" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H490">
         <v>3.5</v>
@@ -12079,14 +12073,14 @@
       </c>
       <c r="G491" s="2"/>
       <c r="H491" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I491" s="2"/>
       <c r="J491" s="2"/>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -12113,7 +12107,7 @@
         <v>10</v>
       </c>
       <c r="G493" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H493">
         <v>3.75</v>
@@ -12140,7 +12134,7 @@
         <v>74</v>
       </c>
       <c r="G494" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H494">
         <v>3.6666660308837891</v>
@@ -12167,7 +12161,7 @@
         <v>74</v>
       </c>
       <c r="G495" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H495">
         <v>3.6666660308837891</v>
@@ -12187,14 +12181,14 @@
       </c>
       <c r="G496" s="2"/>
       <c r="H496" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I496" s="2"/>
       <c r="J496" s="2"/>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -12224,7 +12218,7 @@
         <v>41</v>
       </c>
       <c r="G498" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H498">
         <v>4.5</v>
@@ -12251,7 +12245,7 @@
         <v>41</v>
       </c>
       <c r="G499" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H499">
         <v>4</v>
@@ -12278,7 +12272,7 @@
         <v>41</v>
       </c>
       <c r="G500" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H500">
         <v>4</v>
@@ -12308,7 +12302,7 @@
         <v>41</v>
       </c>
       <c r="G501" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H501">
         <v>5.5</v>
@@ -12328,14 +12322,14 @@
       </c>
       <c r="G502" s="2"/>
       <c r="H502" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I502" s="2"/>
       <c r="J502" s="2"/>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -12365,7 +12359,7 @@
         <v>74</v>
       </c>
       <c r="G504" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H504">
         <v>3.1666660308837891</v>
@@ -12389,7 +12383,7 @@
         <v>66</v>
       </c>
       <c r="G505" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H505">
         <v>4</v>
@@ -12413,7 +12407,7 @@
         <v>18</v>
       </c>
       <c r="G506" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H506">
         <v>4</v>
@@ -12437,7 +12431,7 @@
         <v>18</v>
       </c>
       <c r="G507" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H507">
         <v>4</v>
@@ -12461,7 +12455,7 @@
         <v>10</v>
       </c>
       <c r="G508" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H508">
         <v>3</v>
@@ -12481,14 +12475,14 @@
       </c>
       <c r="G509" s="2"/>
       <c r="H509" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I509" s="2"/>
       <c r="J509" s="2"/>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -12515,7 +12509,7 @@
         <v>10</v>
       </c>
       <c r="G511" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H511">
         <v>3.5</v>
@@ -12539,7 +12533,7 @@
         <v>13</v>
       </c>
       <c r="G512" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H512">
         <v>5</v>
@@ -12563,7 +12557,7 @@
         <v>66</v>
       </c>
       <c r="G513" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H513">
         <v>3</v>
@@ -12587,7 +12581,7 @@
         <v>43</v>
       </c>
       <c r="G514" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H514">
         <v>4</v>
@@ -12614,7 +12608,7 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -12641,7 +12635,7 @@
         <v>18</v>
       </c>
       <c r="G517" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H517">
         <v>4</v>
@@ -12665,7 +12659,7 @@
         <v>10</v>
       </c>
       <c r="G518" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H518">
         <v>4.5</v>
@@ -12689,7 +12683,7 @@
         <v>27</v>
       </c>
       <c r="G519" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H519">
         <v>3.5</v>
@@ -12716,7 +12710,7 @@
         <v>33</v>
       </c>
       <c r="G520" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H520">
         <v>4</v>
@@ -12740,7 +12734,7 @@
         <v>14</v>
       </c>
       <c r="G521" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H521">
         <v>3</v>
@@ -12767,7 +12761,7 @@
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -12794,7 +12788,7 @@
         <v>18</v>
       </c>
       <c r="G524" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H524">
         <v>4.5</v>
@@ -12818,7 +12812,7 @@
         <v>10</v>
       </c>
       <c r="G525" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H525">
         <v>3</v>
@@ -12845,7 +12839,7 @@
         <v>74</v>
       </c>
       <c r="G526" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H526">
         <v>3.6666660308837891</v>
@@ -12872,7 +12866,7 @@
         <v>74</v>
       </c>
       <c r="G527" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H527">
         <v>3.6666660308837891</v>
@@ -12892,14 +12886,14 @@
       </c>
       <c r="G528" s="2"/>
       <c r="H528" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I528" s="2"/>
       <c r="J528" s="2"/>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -12926,7 +12920,7 @@
         <v>10</v>
       </c>
       <c r="G530" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H530">
         <v>3</v>
@@ -12950,7 +12944,7 @@
         <v>66</v>
       </c>
       <c r="G531" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H531">
         <v>3</v>
@@ -12974,7 +12968,7 @@
         <v>12</v>
       </c>
       <c r="G532" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H532">
         <v>3.5</v>
@@ -13001,7 +12995,7 @@
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -13028,7 +13022,7 @@
         <v>12</v>
       </c>
       <c r="G535" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H535">
         <v>3.5</v>
@@ -13052,7 +13046,7 @@
         <v>10</v>
       </c>
       <c r="G536" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H536">
         <v>3.25</v>
@@ -13076,7 +13070,7 @@
         <v>23</v>
       </c>
       <c r="G537" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H537">
         <v>3.5</v>
@@ -13100,7 +13094,7 @@
         <v>10</v>
       </c>
       <c r="G538" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H538">
         <v>3</v>
@@ -13124,7 +13118,7 @@
         <v>23</v>
       </c>
       <c r="G539" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H539">
         <v>3.5</v>
@@ -13144,14 +13138,14 @@
       </c>
       <c r="G540" s="2"/>
       <c r="H540" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I540" s="2"/>
       <c r="J540" s="2"/>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -13181,7 +13175,7 @@
         <v>74</v>
       </c>
       <c r="G542" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H542">
         <v>3.083333015441895</v>
@@ -13208,7 +13202,7 @@
         <v>74</v>
       </c>
       <c r="G543" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H543">
         <v>3.1666660308837891</v>
@@ -13235,7 +13229,7 @@
         <v>74</v>
       </c>
       <c r="G544" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H544">
         <v>3.1666660308837891</v>
@@ -13262,7 +13256,7 @@
         <v>74</v>
       </c>
       <c r="G545" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H545">
         <v>3.1666660308837891</v>
@@ -13286,7 +13280,7 @@
         <v>10</v>
       </c>
       <c r="G546" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H546">
         <v>3.25</v>
@@ -13306,7 +13300,7 @@
       </c>
       <c r="G547" s="2"/>
       <c r="H547" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I547" s="2"/>
       <c r="J547" s="2"/>
@@ -13318,11 +13312,11 @@
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
       <c r="F548" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G548" s="2"/>
       <c r="H548" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I548" s="2"/>
       <c r="J548" s="2"/>
@@ -13432,35 +13426,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" t="s">
         <v>276</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>277</v>
-      </c>
-      <c r="C1" t="s">
-        <v>278</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" t="s">
         <v>279</v>
-      </c>
-      <c r="F1" t="s">
-        <v>280</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -13468,10 +13460,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" t="s">
         <v>281</v>
-      </c>
-      <c r="B2" t="s">
-        <v>282</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -13480,18 +13472,18 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
         <v>283</v>
-      </c>
-      <c r="F2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s">
         <v>285</v>
-      </c>
-      <c r="B3" t="s">
-        <v>286</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -13500,18 +13492,18 @@
         <v>6.5</v>
       </c>
       <c r="E3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" t="s">
         <v>287</v>
-      </c>
-      <c r="F3" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" t="s">
         <v>289</v>
-      </c>
-      <c r="B4" t="s">
-        <v>290</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -13520,18 +13512,18 @@
         <v>19.5</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" t="s">
         <v>292</v>
-      </c>
-      <c r="B5" t="s">
-        <v>293</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -13540,18 +13532,18 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" t="s">
         <v>294</v>
-      </c>
-      <c r="B6" t="s">
-        <v>295</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -13560,18 +13552,18 @@
         <v>10.25</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s">
         <v>296</v>
-      </c>
-      <c r="B7" t="s">
-        <v>297</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -13580,18 +13572,18 @@
         <v>10.5</v>
       </c>
       <c r="E7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" t="s">
         <v>298</v>
-      </c>
-      <c r="B8" t="s">
-        <v>299</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -13600,18 +13592,18 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" t="s">
         <v>301</v>
-      </c>
-      <c r="B9" t="s">
-        <v>302</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -13620,18 +13612,18 @@
         <v>11.25</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" t="s">
         <v>303</v>
-      </c>
-      <c r="B10" t="s">
-        <v>304</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -13640,18 +13632,18 @@
         <v>15.75</v>
       </c>
       <c r="E10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" t="s">
         <v>306</v>
-      </c>
-      <c r="B11" t="s">
-        <v>307</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -13660,18 +13652,18 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" t="s">
         <v>308</v>
-      </c>
-      <c r="B12" t="s">
-        <v>309</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -13680,18 +13672,18 @@
         <v>16.25</v>
       </c>
       <c r="E12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" t="s">
         <v>310</v>
-      </c>
-      <c r="B13" t="s">
-        <v>311</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -13700,18 +13692,18 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" t="s">
         <v>313</v>
-      </c>
-      <c r="B14" t="s">
-        <v>314</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -13720,21 +13712,21 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" t="s">
         <v>316</v>
-      </c>
-      <c r="B15" t="s">
-        <v>317</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -13743,18 +13735,18 @@
         <v>16.25</v>
       </c>
       <c r="E15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" t="s">
         <v>318</v>
-      </c>
-      <c r="B16" t="s">
-        <v>319</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -13763,18 +13755,18 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" t="s">
         <v>321</v>
-      </c>
-      <c r="B17" t="s">
-        <v>322</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -13783,18 +13775,18 @@
         <v>3.25</v>
       </c>
       <c r="E17" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" t="s">
         <v>287</v>
-      </c>
-      <c r="F17" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" t="s">
         <v>323</v>
-      </c>
-      <c r="B18" t="s">
-        <v>324</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -13803,18 +13795,18 @@
         <v>11.5</v>
       </c>
       <c r="E18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" t="s">
         <v>325</v>
-      </c>
-      <c r="B19" t="s">
-        <v>326</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -13823,18 +13815,18 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" t="s">
         <v>327</v>
-      </c>
-      <c r="B20" t="s">
-        <v>328</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -13843,10 +13835,10 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
